--- a/public/data/db_source/variable_modality.xlsx
+++ b/public/data/db_source/variable_modality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannuaire/datannuaire_dev/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bassim/code/datannur/datannur_dev/public/data/db_source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CD64FB-CD47-8649-889C-86A601AAB7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE099913-D56C-614C-B8D1-E411B49191FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>variable_id</t>
   </si>
@@ -28,19 +28,40 @@
     <t>modality_id</t>
   </si>
   <si>
-    <t>dataset_1___variable_3</t>
-  </si>
-  <si>
     <t>modality_1</t>
   </si>
   <si>
-    <t>dataset_1___variable_5</t>
-  </si>
-  <si>
     <t>a_or_b</t>
   </si>
   <si>
-    <t>dataset_2___variable_2</t>
+    <t>ser_pub_loc___variable_3</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___variable_5</t>
+  </si>
+  <si>
+    <t>accident_route___variable_2</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___canton</t>
+  </si>
+  <si>
+    <t>canton_sigle</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___langue</t>
+  </si>
+  <si>
+    <t>langue_sigle</t>
+  </si>
+  <si>
+    <t>ser_pub_loc___nouveau</t>
+  </si>
+  <si>
+    <t>oui_non</t>
+  </si>
+  <si>
+    <t>vide</t>
   </si>
 </sst>
 </file>
@@ -96,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072F39B8-FBF0-7642-8971-DC88216472E7}" name="Tableau1" displayName="Tableau1" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{072F39B8-FBF0-7642-8971-DC88216472E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072F39B8-FBF0-7642-8971-DC88216472E7}" name="Tableau1" displayName="Tableau1" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{072F39B8-FBF0-7642-8971-DC88216472E7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4B3E33CC-0B4D-5142-882E-8BF123717A3A}" name="variable_id"/>
     <tableColumn id="2" xr3:uid="{5826249F-E9CD-0540-8D5A-5BD446A25BB8}" name="modality_id"/>
@@ -393,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -415,18 +436,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -434,7 +455,39 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
